--- a/document/SE09_RequirementOutline.xlsx
+++ b/document/SE09_RequirementOutline.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus X550C\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus X550C\Documents\GitHub\QuanLySanBong\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -296,12 +296,12 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,151 +585,151 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:H17"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="9" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="3" customWidth="1"/>
-    <col min="6" max="9" width="9" style="3"/>
-    <col min="10" max="10" width="10.125" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="1" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="9" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="2" customWidth="1"/>
+    <col min="6" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="10.125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
@@ -742,32 +742,32 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -778,24 +778,24 @@
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D33" s="1"/>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D34" s="1"/>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -805,27 +805,27 @@
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -835,22 +835,22 @@
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -860,22 +860,22 @@
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -885,22 +885,22 @@
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -910,17 +910,17 @@
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -930,12 +930,12 @@
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -945,12 +945,12 @@
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -960,22 +960,22 @@
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/document/SE09_RequirementOutline.xlsx
+++ b/document/SE09_RequirementOutline.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus X550C\Documents\GitHub\QuanLySanBong\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THUONGTHUONG\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Đưa ra danh sách thông tin khách hàng</t>
   </si>
@@ -245,6 +245,12 @@
   </si>
   <si>
     <t xml:space="preserve">     Chức năng chọn dịch vụ đi kèm</t>
+  </si>
+  <si>
+    <t>Xem thông tin chi tiết sân đã chọn</t>
+  </si>
+  <si>
+    <t>Tìm kiếm sân đặ theo ngày</t>
   </si>
 </sst>
 </file>
@@ -583,19 +589,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="9" style="2"/>
     <col min="4" max="4" width="9" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
     <col min="6" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="10.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -700,288 +706,298 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="2" t="s">
-        <v>39</v>
+      <c r="D18" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="2" t="s">
-        <v>69</v>
+      <c r="D19" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C22" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D25" s="1" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D27" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E28" s="2" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E29" s="2" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E30" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E31" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D32" s="1" t="s">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D34" s="1" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D33" s="1"/>
-      <c r="E33" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D34" s="1"/>
-      <c r="E34" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
       <c r="E35" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D36" s="1"/>
+      <c r="E36" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D37" s="1"/>
+      <c r="E37" s="2" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D37" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E38" s="2" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E39" s="2" t="s">
-        <v>10</v>
+      <c r="D39" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E40" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E41" s="2" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D43" s="1" t="s">
-        <v>13</v>
+      <c r="E43" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E44" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E45" s="2" t="s">
-        <v>15</v>
+      <c r="D45" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E46" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E47" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D48" s="1" t="s">
-        <v>64</v>
+      <c r="E48" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E50" s="2" t="s">
-        <v>66</v>
+      <c r="D50" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E52" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E53" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E54" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C53" s="1" t="s">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C55" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D54" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D55" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D56" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D57" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C58" s="1" t="s">
-        <v>48</v>
+      <c r="D58" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D59" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D60" s="2" t="s">
-        <v>26</v>
+      <c r="C60" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D61" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C62" s="1" t="s">
-        <v>49</v>
+      <c r="D62" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D63" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C64" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D64" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C65" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D66" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C67" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D68" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D67" s="2" t="s">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C69" s="1" t="s">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C71" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D70" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D71" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D72" s="2" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D73" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D74" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D75" s="2" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="B5:F5"/>

--- a/document/SE09_RequirementOutline.xlsx
+++ b/document/SE09_RequirementOutline.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THUONGTHUONG\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THUONGTHUONG\Documents\GitHub\QuanLySanBong\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
-    <t>Đưa ra danh sách thông tin khách hàng</t>
-  </si>
-  <si>
     <t>Thông tin chi tiết khách hàng</t>
   </si>
   <si>
@@ -251,6 +248,9 @@
   </si>
   <si>
     <t>Tìm kiếm sân đặ theo ngày</t>
+  </si>
+  <si>
+    <t>Đưa ra danh sách thông tin khách hàng.</t>
   </si>
 </sst>
 </file>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -608,7 +608,7 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -623,7 +623,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -633,7 +633,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -643,38 +643,38 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -682,317 +682,317 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E28" s="2" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E29" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E30" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E31" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E32" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E33" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
       <c r="E35" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D36" s="1"/>
       <c r="E36" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E38" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E40" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E41" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E42" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E43" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E44" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E46" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E47" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E48" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E49" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D56" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D57" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D58" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D59" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D61" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D62" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D63" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D65" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D66" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D68" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D69" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D72" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D73" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D74" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D75" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/document/SE09_RequirementOutline.xlsx
+++ b/document/SE09_RequirementOutline.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Thông tin chi tiết khách hàng</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Chức năng của admin</t>
   </si>
   <si>
-    <t>Danh sách thông tin các cơ sở vật chất</t>
-  </si>
-  <si>
     <t>Thông tin nhân viên</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>Danh mục thông tin khách hàng :</t>
   </si>
   <si>
-    <t>Danh mục cơ sở vật chất :</t>
-  </si>
-  <si>
     <t>Danh mục nhân viên :</t>
   </si>
   <si>
@@ -198,15 +192,6 @@
   </si>
   <si>
     <t>Xóa thông tin khách hàng</t>
-  </si>
-  <si>
-    <t>Thêm thông tin cơ sở vật chất</t>
-  </si>
-  <si>
-    <t>Sửa thông tin cơ sở vật chất</t>
-  </si>
-  <si>
-    <t>Xóa thông tin cơ sở vật chất</t>
   </si>
   <si>
     <t>Thống kê lượt khách hàng đến sân</t>
@@ -589,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -608,7 +593,7 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -623,7 +608,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D3" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -633,7 +618,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -643,18 +628,18 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -682,62 +667,62 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D19" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
@@ -749,17 +734,17 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E28" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
@@ -769,17 +754,17 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E30" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E31" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E32" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.3">
@@ -789,210 +774,182 @@
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D35" s="1"/>
       <c r="E35" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D36" s="1"/>
       <c r="E36" s="2" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D37" s="1"/>
       <c r="E37" s="2" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E38" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D39" s="1" t="s">
-        <v>45</v>
+      <c r="E39" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="2" t="s">
-        <v>8</v>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E41" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E42" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E43" s="2" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E44" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D45" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E46" s="2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E47" s="2" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E48" s="2" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E49" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C50" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D51" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D50" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E51" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E52" s="2" t="s">
-        <v>65</v>
+      <c r="D52" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E53" s="2" t="s">
-        <v>66</v>
+      <c r="D53" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E54" s="2" t="s">
-        <v>67</v>
+      <c r="D54" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D56" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D57" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D58" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C59" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D60" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D59" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C60" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D61" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D62" s="2" t="s">
-        <v>25</v>
+      <c r="C62" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D63" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C66" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D65" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D66" s="2" t="s">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D67" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C67" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D68" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D69" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C71" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D72" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D73" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D74" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D75" s="2" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D70" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/document/SE09_RequirementOutline.xlsx
+++ b/document/SE09_RequirementOutline.xlsx
@@ -29,9 +29,6 @@
     <t>Thông tin chi tiết khách hàng</t>
   </si>
   <si>
-    <t>Chọn khách hàng thân thiết</t>
-  </si>
-  <si>
     <t>Người dùng</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
   </si>
   <si>
     <t>Chỉnh sửa thông tin nhân viên</t>
-  </si>
-  <si>
-    <t>Thêm thông tin khách hàng</t>
   </si>
   <si>
     <t>Sửa thông tin khách hàng</t>
@@ -236,6 +230,12 @@
   </si>
   <si>
     <t>Đưa ra danh sách thông tin khách hàng.</t>
+  </si>
+  <si>
+    <t>Tìm kiếm thông tin khách hàng theo tên khách hàng, sđt, email</t>
+  </si>
+  <si>
+    <t>Thêm một khách hàng mới</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -593,7 +593,7 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -608,7 +608,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -618,7 +618,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -628,38 +628,38 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -667,289 +667,289 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D18" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E29" s="2" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E30" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E31" s="2" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E32" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E33" s="2" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E35" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E36" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E37" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E39" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E41" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E42" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E43" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E44" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D45" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E46" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E49" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D51" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D52" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D53" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D54" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D56" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D57" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D58" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D60" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D61" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D63" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D64" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D67" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D68" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D69" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D70" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
